--- a/death_count.xlsx
+++ b/death_count.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -63,15 +63,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>82.0</v>
+        <v>257.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>146.0</v>
+        <v>258.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -79,58 +79,1130 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84.0</v>
+        <v>262.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57.0</v>
+        <v>267.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58.0</v>
+        <v>268.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59.0</v>
+        <v>270.0</v>
       </c>
       <c r="B6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108.0</v>
+        <v>277.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>125.0</v>
+        <v>278.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
         <v>62.0</v>
       </c>
-      <c r="B9" t="n">
-        <v>1.0</v>
+      <c r="B43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
